--- a/Projet 1/Matériel/Matériel.xlsx
+++ b/Projet 1/Matériel/Matériel.xlsx
@@ -3,12 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{4F7DE20C-4499-4FCF-9C2C-5131B48A42D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{618938B9-341E-4B12-A6B1-5EB1D05CA531}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
   <si>
     <t>Matériel</t>
   </si>
@@ -157,6 +158,60 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>Installation et configuration imprimante</t>
+  </si>
+  <si>
+    <t>15h</t>
+  </si>
+  <si>
+    <t>Installation ordinateur/écran/clavier/souris/dock-in</t>
+  </si>
+  <si>
+    <t>Configuration Ordinateur</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>Câblage complet</t>
+  </si>
+  <si>
+    <t>180.-/h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prix à l'heure : </t>
+  </si>
+  <si>
+    <t>Installations</t>
+  </si>
+  <si>
+    <t>Montage composants serveurs</t>
+  </si>
+  <si>
+    <t>Configuration Serveurs</t>
+  </si>
+  <si>
+    <t>Configuration VPN</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>Configuration NAS / backup</t>
+  </si>
+  <si>
+    <t>Total :</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>CHF</t>
   </si>
 </sst>
 </file>
@@ -196,7 +251,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -204,18 +259,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -498,7 +623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B7" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -514,56 +639,56 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="3" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
       <c r="H6" t="s">
         <v>40</v>
       </c>
@@ -640,13 +765,13 @@
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
@@ -667,13 +792,13 @@
       </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="2:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B12" s="1" t="s">
@@ -712,13 +837,13 @@
       </c>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
@@ -757,13 +882,13 @@
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
@@ -820,12 +945,12 @@
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="3"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
@@ -838,7 +963,7 @@
         <v>6700</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E21:E30" si="0">(C22*D22)</f>
+        <f t="shared" ref="E22:E29" si="0">(C22*D22)</f>
         <v>6700</v>
       </c>
       <c r="F22" t="s">
@@ -864,13 +989,13 @@
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
@@ -891,13 +1016,13 @@
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
@@ -918,13 +1043,13 @@
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
@@ -945,13 +1070,13 @@
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
@@ -972,13 +1097,13 @@
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
@@ -1013,4 +1138,140 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D35830C-10C2-4F34-BD05-9F86E19C6D20}">
+  <dimension ref="B3:E26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.90625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B10" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B12" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B16" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="8">
+        <f>(8+15+15+2+8+1+2)</f>
+        <v>51</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="10"/>
+      <c r="C26" s="11">
+        <f>(51*180)</f>
+        <v>9180</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Projet 1/Matériel/Matériel.xlsx
+++ b/Projet 1/Matériel/Matériel.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{618938B9-341E-4B12-A6B1-5EB1D05CA531}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" hidePivotFieldList="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
     <sheet name="Feuil1 (2)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
   <si>
     <t>Matériel</t>
   </si>
@@ -160,24 +159,15 @@
     <t>x</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
     <t>Installation et configuration imprimante</t>
   </si>
   <si>
-    <t>15h</t>
-  </si>
-  <si>
     <t>Installation ordinateur/écran/clavier/souris/dock-in</t>
   </si>
   <si>
     <t>Configuration Ordinateur</t>
   </si>
   <si>
-    <t>8h</t>
-  </si>
-  <si>
     <t>Câblage complet</t>
   </si>
   <si>
@@ -199,26 +189,77 @@
     <t>Configuration VPN</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
     <t>Configuration NAS / backup</t>
   </si>
   <si>
-    <t>Total :</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>CHF</t>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Colonne2</t>
+  </si>
+  <si>
+    <t>Colonne3</t>
+  </si>
+  <si>
+    <t>Colonne4</t>
+  </si>
+  <si>
+    <t>Total d'heures :</t>
+  </si>
+  <si>
+    <t>Prix total:</t>
+  </si>
+  <si>
+    <t>59*180</t>
+  </si>
+  <si>
+    <t>Valeur total du projet:</t>
+  </si>
+  <si>
+    <t>mois</t>
+  </si>
+  <si>
+    <t>facturé par mois</t>
+  </si>
+  <si>
+    <t>5% d'interêt</t>
+  </si>
+  <si>
+    <t>Facturation</t>
+  </si>
+  <si>
+    <t>Proposition de support 4ans</t>
+  </si>
+  <si>
+    <t>Valeur du projet</t>
+  </si>
+  <si>
+    <t>Leasing sans support 4ans</t>
+  </si>
+  <si>
+    <t>Leasing avec support 4ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48 mois de support 4 h par mois non cumulables </t>
+  </si>
+  <si>
+    <t>Valeur total du projet avec support:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;fr.&quot;\ * #,##0.00_ ;_ &quot;fr.&quot;\ * \-#,##0.00_ ;_ &quot;fr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,16 +283,62 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -260,11 +347,52 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -273,7 +401,7 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
@@ -281,22 +409,40 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -305,27 +451,28 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -336,16 +483,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Monétaire" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -356,6 +630,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B5:F35" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="B5:F35"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Nom"/>
+    <tableColumn id="2" name="Unité"/>
+    <tableColumn id="3" name="Prix unité"/>
+    <tableColumn id="4" name="Prix total"/>
+    <tableColumn id="5" name="Vendeur"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="H5:M8" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="H5:M8"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="Nom"/>
+    <tableColumn id="2" name="Unité"/>
+    <tableColumn id="3" name="Prix unité"/>
+    <tableColumn id="4" name="Prix total"/>
+    <tableColumn id="5" name="Vendeur"/>
+    <tableColumn id="6" name="Durée"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="H12:K32" totalsRowShown="0">
+  <autoFilter ref="H12:K32"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Colonne1" dataDxfId="3"/>
+    <tableColumn id="2" name="Colonne2" dataDxfId="2"/>
+    <tableColumn id="3" name="Colonne3"/>
+    <tableColumn id="4" name="Colonne4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="B38:D42" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B38:D42"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Leasing sans support 4ans"/>
+    <tableColumn id="2" name="mois"/>
+    <tableColumn id="3" name="facturé par mois"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau68" displayName="Tableau68" ref="B44:D48" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B44:D48"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Leasing avec support 4ans"/>
+    <tableColumn id="2" name="mois"/>
+    <tableColumn id="3" name="facturé par mois"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -620,46 +960,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:M33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M48"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" customWidth="1"/>
+    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="17.5703125" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="2:13" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="17"/>
+      <c r="H3" s="26" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17"/>
+    </row>
+    <row r="4" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -681,7 +1050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -709,7 +1078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -746,7 +1115,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -763,8 +1132,15 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="11">
+        <f>SUM(K6:K7)</f>
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
@@ -773,7 +1149,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -791,7 +1167,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
@@ -799,8 +1175,18 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-    </row>
-    <row r="12" spans="2:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="H11" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="25"/>
+      <c r="J11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -817,8 +1203,20 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="J12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -835,8 +1233,9 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
@@ -844,8 +1243,9 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -862,8 +1262,14 @@
       <c r="F15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="H15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K15" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -880,8 +1286,9 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
@@ -889,8 +1296,14 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -907,8 +1320,9 @@
       <c r="F18" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -925,8 +1339,14 @@
       <c r="F19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -943,16 +1363,23 @@
       <c r="F20" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="2" t="s">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="H21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -969,8 +1396,9 @@
       <c r="F22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -987,8 +1415,14 @@
       <c r="F23" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K23" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
@@ -996,8 +1430,9 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -1014,8 +1449,14 @@
       <c r="F25" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K25" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
@@ -1023,8 +1464,9 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>31</v>
       </c>
@@ -1041,8 +1483,14 @@
       <c r="F27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="K27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
@@ -1050,8 +1498,9 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -1068,8 +1517,14 @@
       <c r="F29" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="K29" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
@@ -1077,8 +1532,9 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -1095,8 +1551,16 @@
       <c r="F31" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8">
+        <f>SUM(K15:K29)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
@@ -1104,8 +1568,17 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="H32" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="I32" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J32" s="10">
+        <v>9180</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>37</v>
       </c>
@@ -1122,155 +1595,180 @@
         <v>9</v>
       </c>
     </row>
+    <row r="34" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="H34" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I34" s="31"/>
+      <c r="J34" s="32">
+        <f>E35+K8+J32</f>
+        <v>85918</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="11">
+        <f>SUM(E7:E34)</f>
+        <v>73423</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="17"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="11">
+        <v>85918</v>
+      </c>
+      <c r="H39" s="18"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="19"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" s="11">
+        <v>4295.8999999999996</v>
+      </c>
+      <c r="H40" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="7">
+        <v>48</v>
+      </c>
+      <c r="D41" s="13">
+        <v>1879.45</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34">
+        <v>90213.9</v>
+      </c>
+    </row>
+    <row r="43" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="32">
+        <v>115918</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>71</v>
+      </c>
+      <c r="D45" s="11">
+        <v>115918</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="11">
+        <v>5795.9</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="7">
+        <v>48</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2535.6999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34">
+        <v>121713.9</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B32:F32"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B24:F24"/>
+  <mergeCells count="4">
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H44:J44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="5">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D35830C-10C2-4F34-BD05-9F86E19C6D20}">
-  <dimension ref="B3:E26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.90625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="D5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B10" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B14" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B16" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B18" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B19" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B20" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B21" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B22" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B23" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B25" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="8">
-        <f>(8+15+15+2+8+1+2)</f>
-        <v>51</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="10"/>
-      <c r="C26" s="11">
-        <f>(51*180)</f>
-        <v>9180</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Projet 1/Matériel/Matériel.xlsx
+++ b/Projet 1/Matériel/Matériel.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="82">
   <si>
     <t>Matériel</t>
   </si>
@@ -250,6 +250,24 @@
   </si>
   <si>
     <t>Valeur total du projet avec support:</t>
+  </si>
+  <si>
+    <t>Solution de sauvegarde en Cloud Amazon galcier $/Go</t>
+  </si>
+  <si>
+    <t>0.004$</t>
+  </si>
+  <si>
+    <t>2 To de stockage par mois 4 ans</t>
+  </si>
+  <si>
+    <t>Réplication des données en cloud</t>
+  </si>
+  <si>
+    <t>VPN</t>
+  </si>
+  <si>
+    <t>Solution PureVPN 4 ans . 2.73/mois</t>
   </si>
 </sst>
 </file>
@@ -259,7 +277,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_ &quot;fr.&quot;\ * #,##0.00_ ;_ &quot;fr.&quot;\ * \-#,##0.00_ ;_ &quot;fr.&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +341,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -338,7 +362,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -467,12 +491,126 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -484,35 +622,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -522,7 +640,48 @@
     <xf numFmtId="44" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -647,8 +806,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="H5:M8" totalsRowShown="0" headerRowDxfId="4">
-  <autoFilter ref="H5:M8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B40:G43" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="B40:G43"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Nom"/>
     <tableColumn id="2" name="Unité"/>
@@ -662,8 +821,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="H12:K32" totalsRowShown="0">
-  <autoFilter ref="H12:K32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="B51:E61" totalsRowShown="0">
+  <autoFilter ref="B51:E61"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Colonne1" dataDxfId="3"/>
     <tableColumn id="2" name="Colonne2" dataDxfId="2"/>
@@ -675,8 +834,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="B38:D42" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="B38:D42"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="B87:D91" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="B87:D91"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Leasing sans support 4ans"/>
     <tableColumn id="2" name="mois"/>
@@ -687,8 +846,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau68" displayName="Tableau68" ref="B44:D48" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="B44:D48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau68" displayName="Tableau68" ref="B93:D97" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="B93:D97"/>
   <tableColumns count="3">
     <tableColumn id="1" name="Leasing avec support 4ans"/>
     <tableColumn id="2" name="mois"/>
@@ -961,20 +1120,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:M48"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="2.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.5703125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" customWidth="1"/>
     <col min="8" max="8" width="21.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
@@ -983,39 +1143,25 @@
     <col min="13" max="13" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B3" s="26" t="s">
+    <row r="1" spans="2:6" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:6" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="17"/>
-      <c r="H3" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17"/>
-    </row>
-    <row r="4" spans="2:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="27"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="2:6" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="19"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
         <v>1</v>
       </c>
@@ -1031,26 +1177,8 @@
       <c r="F5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>19</v>
       </c>
@@ -1058,27 +1186,8 @@
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="H6" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6">
-        <v>30</v>
-      </c>
-      <c r="J6">
-        <v>70</v>
-      </c>
-      <c r="K6">
-        <f>(I6*J6)</f>
-        <v>2100</v>
-      </c>
-      <c r="L6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -1095,27 +1204,8 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7">
-        <v>405</v>
-      </c>
-      <c r="K7">
-        <f>(I7*J7)</f>
-        <v>1215</v>
-      </c>
-      <c r="L7" t="s">
-        <v>35</v>
-      </c>
-      <c r="M7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>6</v>
       </c>
@@ -1132,15 +1222,8 @@
       <c r="F8" t="s">
         <v>9</v>
       </c>
-      <c r="H8" t="s">
-        <v>57</v>
-      </c>
-      <c r="K8" s="11">
-        <f>SUM(K6:K7)</f>
-        <v>3315</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
@@ -1149,7 +1232,7 @@
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>7</v>
       </c>
@@ -1167,7 +1250,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:13" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
         <v>21</v>
       </c>
@@ -1175,18 +1258,8 @@
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="H11" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="K11" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1203,20 +1276,8 @@
       <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="I12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
@@ -1233,9 +1294,8 @@
       <c r="F13" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
         <v>22</v>
       </c>
@@ -1243,9 +1303,8 @@
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>14</v>
       </c>
@@ -1262,14 +1321,8 @@
       <c r="F15" t="s">
         <v>12</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>13</v>
       </c>
@@ -1286,9 +1339,8 @@
       <c r="F16" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
         <v>23</v>
       </c>
@@ -1296,14 +1348,8 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="H17" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K17" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>15</v>
       </c>
@@ -1320,9 +1366,8 @@
       <c r="F18" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>16</v>
       </c>
@@ -1339,14 +1384,8 @@
       <c r="F19" t="s">
         <v>12</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="K19" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>17</v>
       </c>
@@ -1363,23 +1402,16 @@
       <c r="F20" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="H21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K21" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>26</v>
       </c>
@@ -1396,9 +1428,8 @@
       <c r="F22" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>27</v>
       </c>
@@ -1415,14 +1446,8 @@
       <c r="F23" t="s">
         <v>9</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="K23" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
@@ -1430,9 +1455,8 @@
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>29</v>
       </c>
@@ -1449,14 +1473,8 @@
       <c r="F25" t="s">
         <v>9</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="K25" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
@@ -1464,9 +1482,8 @@
       <c r="D26" s="6"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>31</v>
       </c>
@@ -1483,14 +1500,8 @@
       <c r="F27" t="s">
         <v>9</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
@@ -1498,9 +1509,8 @@
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>33</v>
       </c>
@@ -1517,14 +1527,8 @@
       <c r="F29" t="s">
         <v>35</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
@@ -1532,9 +1536,8 @@
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>34</v>
       </c>
@@ -1551,16 +1554,8 @@
       <c r="F31" t="s">
         <v>35</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8">
-        <f>SUM(K15:K29)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
@@ -1568,17 +1563,8 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="H32" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="J32" s="10">
-        <v>9180</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>37</v>
       </c>
@@ -1595,155 +1581,441 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="H34" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="31"/>
-      <c r="J34" s="32">
-        <f>E35+K8+J32</f>
-        <v>85918</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="9">
         <f>SUM(E7:E34)</f>
         <v>73423</v>
       </c>
     </row>
-    <row r="36" spans="2:11" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="6" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="6"/>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="2:7" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="2:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B39" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="13"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>30</v>
+      </c>
+      <c r="D41">
+        <v>70</v>
+      </c>
+      <c r="E41">
+        <f>(C41*D41)</f>
+        <v>2100</v>
+      </c>
+      <c r="F41" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>405</v>
+      </c>
+      <c r="E42">
+        <f>(C42*D42)</f>
+        <v>1215</v>
+      </c>
+      <c r="F42" t="s">
+        <v>35</v>
+      </c>
+      <c r="G42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="9">
+        <f>SUM(E41:E42)</f>
+        <v>3315</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="9"/>
+    </row>
+    <row r="45" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="9"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="9"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E47" s="9"/>
+    </row>
+    <row r="50" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B50" s="47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="48"/>
+      <c r="D50" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s">
+        <v>60</v>
+      </c>
+      <c r="E51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E52" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E54" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E57" s="5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="31">
+        <f ca="1">SUM(E52:E65)</f>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="34">
+        <v>9180</v>
+      </c>
+      <c r="E61" s="35"/>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="27"/>
+      <c r="C62" s="28"/>
+    </row>
+    <row r="63" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B63" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" s="39"/>
+      <c r="D63" s="40"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="50" t="s">
+        <v>76</v>
+      </c>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="36" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="37">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B67" s="42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="51" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="41">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="5"/>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="27"/>
+      <c r="C70" s="28"/>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="27"/>
+      <c r="C71" s="28"/>
+    </row>
+    <row r="73" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B73" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="24">
+        <f>E35+E43+D61+E65+E68</f>
+        <v>86448</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77" s="44"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="13"/>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="14"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="15"/>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C79" s="46"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="16">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B83" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="49"/>
+      <c r="D83" s="49"/>
+      <c r="E83" s="24">
+        <f>D73+E79</f>
+        <v>116448</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D87" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H38" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="I38" s="15"/>
-      <c r="J38" s="16"/>
-      <c r="K38" s="17"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="11">
-        <v>85918</v>
-      </c>
-      <c r="H39" s="18"/>
-      <c r="I39" s="8"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="19"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+      <c r="D88" s="9">
+        <f>D73</f>
+        <v>86448</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D40" s="11">
-        <v>4295.8999999999996</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="22">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="7" t="s">
+      <c r="D89" s="9">
+        <f>D88*5%</f>
+        <v>4322.4000000000005</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="7">
+      <c r="C90" s="7">
         <v>48</v>
       </c>
-      <c r="D41" s="13">
-        <v>1879.45</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B42" s="3" t="s">
+      <c r="D90" s="11">
+        <f>D91/Tableau6[[#This Row],[mois]]</f>
+        <v>1891.05</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B91" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34">
-        <v>90213.9</v>
-      </c>
-    </row>
-    <row r="43" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B44" s="6" t="s">
+      <c r="C91" s="25"/>
+      <c r="D91" s="26">
+        <f>D88+D89</f>
+        <v>90770.4</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D44" s="6" t="s">
+      <c r="D93" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="H44" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="32">
-        <v>115918</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="11">
-        <v>115918</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="12" t="s">
+      <c r="D94" s="9">
+        <f>E83</f>
+        <v>116448</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="11">
-        <v>5795.9</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
+      <c r="D95" s="9">
+        <f>D94*5%</f>
+        <v>5822.4000000000005</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="7">
+      <c r="C96" s="7">
         <v>48</v>
       </c>
-      <c r="D47" s="13">
-        <v>2535.6999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B48" s="3" t="s">
+      <c r="D96" s="11">
+        <f>D97/Tableau68[[#This Row],[mois]]</f>
+        <v>2547.2999999999997</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B97" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34">
-        <v>121713.9</v>
+      <c r="C97" s="25"/>
+      <c r="D97" s="26">
+        <f>D94+D95</f>
+        <v>122270.39999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H44:J44"/>
+  <mergeCells count="7">
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B79:D79"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B83:D83"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B68:D68"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="5">
     <tablePart r:id="rId2"/>
